--- a/en/images/goobi-plugin-import-eth-no-catalogue_sample_data_archival_box_objects.xlsx
+++ b/en/images/goobi-plugin-import-eth-no-catalogue_sample_data_archival_box_objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steffen/git/goobi-workflow/plugin-import-eth-no-catalogue/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27492C45-9D9B-CD43-9D40-6D1D8935F4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBAFDCA-CF10-8C4E-BFBA-B9EEBF788E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="3760" windowWidth="27040" windowHeight="15740" xr2:uid="{799CE81A-27C5-664D-9EEE-5BE1EC197E54}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>13.01.2004</t>
   </si>
@@ -53,31 +53,46 @@
     <t>Box_01</t>
   </si>
   <si>
-    <t>Map_01</t>
-  </si>
-  <si>
     <t>Box_02</t>
   </si>
   <si>
-    <t>Map_02</t>
-  </si>
-  <si>
-    <t>Map_03</t>
-  </si>
-  <si>
     <t>17.01.2004</t>
+  </si>
+  <si>
+    <t>HSA_TMA_1</t>
+  </si>
+  <si>
+    <t>HSA_TMA_2</t>
+  </si>
+  <si>
+    <t>HSA_TMA_3</t>
+  </si>
+  <si>
+    <t>HSA_TMA_4</t>
+  </si>
+  <si>
+    <t>HSA_TMA_5</t>
+  </si>
+  <si>
+    <t>Box_03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -101,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,7 +457,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,8 +473,8 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -466,10 +482,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -477,10 +493,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -488,10 +504,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -499,13 +515,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
